--- a/New Aphid and cabbage project Rproj/Data/Combinations of variables for linear model.xlsx
+++ b/New Aphid and cabbage project Rproj/Data/Combinations of variables for linear model.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mk4rb\Documents\GitHub\Group-project\New Aphid and cabbage project Rproj\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{70266E7E-E5BF-4BA6-92CD-189F22E4026F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBB1998D-C718-46DE-B234-6DFBCD54A630}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{EE5328EF-AF7B-4790-B89C-FF67E67BF258}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{EE5328EF-AF7B-4790-B89C-FF67E67BF258}"/>
   </bookViews>
   <sheets>
     <sheet name="APG" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="PR" sheetId="2" r:id="rId2"/>
+    <sheet name="SF" sheetId="3" r:id="rId3"/>
+    <sheet name="Biomass" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -580,8 +582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BDC7D66-11D4-49B6-8BC8-7E8845106F96}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -818,6 +820,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6842D80-94C6-4D35-B753-FA0C6B993635}">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F5F362-1C1C-4860-8626-5CA1425BE6EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData/>
+  <phoneticPr fontId="2"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C15B6A4-0C36-4383-A858-14968C70322D}">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
